--- a/data/trans_bre/PLURIPATOLOGIA-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,47</t>
+          <t>0,49; 7,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 14,25</t>
+          <t>3,86; 13,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,16</t>
+          <t>0,75; 6,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 531,64</t>
+          <t>4,62; 583,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,88; 486,86</t>
+          <t>49,48; 438,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,61; 411,0</t>
+          <t>13,06; 426,26</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,74</t>
+          <t>5,19; 11,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,79</t>
+          <t>0,99; 7,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,69</t>
+          <t>2,07; 6,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 11,11</t>
+          <t>4,42; 11,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,87; 552,97</t>
+          <t>100,77; 559,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 228,16</t>
+          <t>10,54; 215,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,25; 764,98</t>
+          <t>67,92; 848,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,72; 260,71</t>
+          <t>49,01; 244,75</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,78</t>
+          <t>-0,62; 3,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 9,85</t>
+          <t>1,97; 9,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 8,5</t>
+          <t>1,87; 8,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 9,27</t>
+          <t>0,46; 9,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 1059,69</t>
+          <t>-55,39; 728,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,55; 722,41</t>
+          <t>26,92; 534,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,5; 1107,14</t>
+          <t>44,03; 1058,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 92,66</t>
+          <t>3,26; 92,02</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,46</t>
+          <t>-0,72; 4,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 11,32</t>
+          <t>4,6; 10,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,7</t>
+          <t>3,77; 12,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 9,41</t>
+          <t>0,04; 8,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 360,99</t>
+          <t>-33,16; 349,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,15; 358,65</t>
+          <t>81,53; 332,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,1; 356,28</t>
+          <t>44,78; 334,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 116,61</t>
+          <t>-0,57; 100,99</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 7,28</t>
+          <t>-0,56; 7,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 16,21</t>
+          <t>2,06; 15,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 11,74</t>
+          <t>1,04; 11,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 11,88</t>
+          <t>0,71; 11,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,56; 742,26</t>
+          <t>-30,9; 825,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,47; 286,13</t>
+          <t>15,44; 264,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,72; 424,02</t>
+          <t>8,7; 376,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 167,55</t>
+          <t>6,28; 152,41</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,6</t>
+          <t>2,3; 7,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,94</t>
+          <t>-2,41; 5,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,68</t>
+          <t>-0,69; 7,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,64; 15,89</t>
+          <t>5,42; 16,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 188,79</t>
+          <t>-35,16; 172,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 320,74</t>
+          <t>-17,64; 304,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,17; 106,59</t>
+          <t>27,17; 110,61</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,11</t>
+          <t>0,29; 5,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,54</t>
+          <t>4,01; 9,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,44</t>
+          <t>3,71; 9,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,07; 48,48</t>
+          <t>12,23; 50,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 232,64</t>
+          <t>5,61; 227,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,21; 427,09</t>
+          <t>88,31; 418,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>68,21; 315,91</t>
+          <t>66,68; 318,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>115,73; 558,47</t>
+          <t>114,63; 589,17</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 4,76</t>
+          <t>-1,16; 4,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,58</t>
+          <t>4,2; 8,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,42</t>
+          <t>4,92; 10,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,48; 10,4</t>
+          <t>4,49; 10,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 79,97</t>
+          <t>-14,13; 73,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>151,78; 763,04</t>
+          <t>161,6; 789,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>102,73; 411,88</t>
+          <t>104,29; 415,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>59,17; 207,03</t>
+          <t>62,23; 200,28</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,42</t>
+          <t>2,23; 4,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,36</t>
+          <t>4,91; 7,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,56</t>
+          <t>5,0; 7,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,44; 18,62</t>
+          <t>7,5; 19,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>56,27; 145,6</t>
+          <t>56,49; 144,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>110,21; 221,93</t>
+          <t>114,83; 220,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>128,79; 250,31</t>
+          <t>122,94; 241,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>83,17; 223,57</t>
+          <t>81,86; 219,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PLURIPATOLOGIA-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 7,57</t>
+          <t>0,58; 7,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 13,78</t>
+          <t>3,91; 13,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 583,63</t>
+          <t>2,07; 507,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,48; 438,32</t>
+          <t>53,1; 444,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 11,71</t>
+          <t>4,94; 11,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,76</t>
+          <t>1,07; 8,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,96</t>
+          <t>2,21; 6,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>100,77; 559,49</t>
+          <t>101,18; 550,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 215,12</t>
+          <t>10,95; 240,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,92; 848,92</t>
+          <t>66,24; 736,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,64</t>
+          <t>-0,58; 3,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,34</t>
+          <t>1,99; 9,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 8,23</t>
+          <t>1,81; 7,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,39; 728,63</t>
+          <t>-48,48; 803,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,92; 534,35</t>
+          <t>27,54; 588,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,03; 1058,02</t>
+          <t>41,63; 1004,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,59</t>
+          <t>-1,01; 4,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 10,84</t>
+          <t>4,99; 11,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 12,34</t>
+          <t>4,18; 13,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 349,09</t>
+          <t>-33,57; 259,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,53; 332,6</t>
+          <t>88,79; 361,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,78; 334,23</t>
+          <t>56,67; 350,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,28</t>
+          <t>-0,67; 7,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,16</t>
+          <t>1,7; 14,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 11,2</t>
+          <t>1,32; 11,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 825,98</t>
+          <t>-33,47; 674,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,44; 264,19</t>
+          <t>9,82; 228,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 376,96</t>
+          <t>14,28; 408,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,53</t>
+          <t>2,3; 7,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,22</t>
+          <t>-2,06; 6,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 7,07</t>
+          <t>-0,81; 7,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 172,4</t>
+          <t>-33,97; 183,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 304,63</t>
+          <t>-24,99; 301,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 5,01</t>
+          <t>0,75; 5,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,71</t>
+          <t>4,18; 9,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 9,64</t>
+          <t>3,63; 9,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 227,39</t>
+          <t>14,09; 231,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,31; 418,95</t>
+          <t>91,5; 445,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>66,68; 318,99</t>
+          <t>63,35; 307,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,4</t>
+          <t>-1,01; 4,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,61</t>
+          <t>4,25; 8,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,24</t>
+          <t>4,77; 10,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 73,96</t>
+          <t>-12,09; 71,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>161,6; 789,17</t>
+          <t>154,06; 800,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>104,29; 415,11</t>
+          <t>99,6; 406,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,35</t>
+          <t>2,24; 4,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,35</t>
+          <t>4,94; 7,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,49</t>
+          <t>5,06; 7,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>56,49; 144,33</t>
+          <t>56,99; 148,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>114,83; 220,54</t>
+          <t>112,15; 217,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>122,94; 241,13</t>
+          <t>122,16; 244,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/PLURIPATOLOGIA-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,43</t>
+          <t>0,58; 7,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 13,34</t>
+          <t>3,86; 14,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,2</t>
+          <t>1,0; 6,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 507,75</t>
+          <t>7,46; 531,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,1; 444,71</t>
+          <t>51,88; 486,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,06; 426,26</t>
+          <t>11,61; 411,0</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,88</t>
+          <t>4,99; 11,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 8,06</t>
+          <t>1,0; 7,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,86</t>
+          <t>1,91; 6,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,08</t>
+          <t>4,55; 11,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>101,18; 550,59</t>
+          <t>90,87; 552,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 240,86</t>
+          <t>9,67; 228,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,24; 736,74</t>
+          <t>73,25; 764,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,01; 244,75</t>
+          <t>56,72; 260,71</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,26</t>
+          <t>-0,57; 3,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,09</t>
+          <t>1,96; 9,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,83</t>
+          <t>2,1; 8,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 9,4</t>
+          <t>0,5; 9,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 803,5</t>
+          <t>-43,07; 1059,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 588,9</t>
+          <t>24,55; 722,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>41,63; 1004,19</t>
+          <t>44,5; 1107,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 92,02</t>
+          <t>3,1; 92,66</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 4,09</t>
+          <t>-1,07; 4,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,1</t>
+          <t>4,88; 11,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 13,16</t>
+          <t>3,98; 12,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 8,9</t>
+          <t>-0,24; 9,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 259,7</t>
+          <t>-32,57; 360,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,79; 361,54</t>
+          <t>84,15; 358,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,67; 350,76</t>
+          <t>55,1; 356,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 100,99</t>
+          <t>-1,9; 116,61</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 7,23</t>
+          <t>-0,54; 7,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 14,57</t>
+          <t>3,05; 16,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 11,44</t>
+          <t>1,33; 11,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 11,83</t>
+          <t>0,51; 11,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 674,55</t>
+          <t>-40,56; 742,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 228,08</t>
+          <t>20,47; 286,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,28; 408,22</t>
+          <t>12,72; 424,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 152,41</t>
+          <t>4,86; 167,55</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,62</t>
+          <t>2,37; 7,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,01</t>
+          <t>-1,94; 5,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 7,0</t>
+          <t>-0,9; 6,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,42; 16,23</t>
+          <t>4,64; 15,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 183,09</t>
+          <t>-33,7; 188,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 301,14</t>
+          <t>-18,86; 320,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,17; 110,61</t>
+          <t>22,17; 106,59</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,03</t>
+          <t>0,5; 5,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,6</t>
+          <t>3,87; 9,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,58</t>
+          <t>3,72; 9,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,23; 50,35</t>
+          <t>12,07; 48,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,09; 231,43</t>
+          <t>6,12; 232,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,5; 445,78</t>
+          <t>86,21; 427,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>63,35; 307,01</t>
+          <t>68,21; 315,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>114,63; 589,17</t>
+          <t>115,73; 558,47</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 4,36</t>
+          <t>-0,71; 4,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,44</t>
+          <t>4,04; 8,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,11</t>
+          <t>4,93; 10,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,49; 10,31</t>
+          <t>4,48; 10,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 71,61</t>
+          <t>-9,96; 79,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>154,06; 800,81</t>
+          <t>151,78; 763,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>99,6; 406,06</t>
+          <t>102,73; 411,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>62,23; 200,28</t>
+          <t>59,17; 207,03</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,46</t>
+          <t>2,25; 4,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,94; 7,32</t>
+          <t>4,83; 7,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,55</t>
+          <t>5,05; 7,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,91</t>
+          <t>7,44; 18,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>56,99; 148,52</t>
+          <t>56,27; 145,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>112,15; 217,94</t>
+          <t>110,21; 221,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>122,16; 244,04</t>
+          <t>128,79; 250,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>81,86; 219,6</t>
+          <t>83,17; 223,57</t>
         </is>
       </c>
     </row>
